--- a/VWC.xlsx
+++ b/VWC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Dropbox\UIUC\QSDsan\qsdsan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Dropbox\UIUC\QSDsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D7E4D8-CA13-4851-8007-3AE8AC9BC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48066EC9-DD6D-418F-AFB0-AE0DD74F9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3C4704CD-EBDB-45BB-ACB0-DF3151B2F46C}"/>
   </bookViews>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Item</t>
-  </si>
-  <si>
-    <t>vwc</t>
   </si>
   <si>
     <t>Wheat</t>
@@ -47,6 +44,10 @@
   </si>
   <si>
     <t>Peas, green</t>
+  </si>
+  <si>
+    <t>VWC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1020,7 +1021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1B1E2-896E-4AB0-A165-310675FE1C0D}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
@@ -1029,12 +1032,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1620</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1639</v>
@@ -1050,7 +1053,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2145</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1028</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2960</v>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>4117</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>445</v>
